--- a/Report/SWP391-AppDevProject_Weekly Report.xlsx
+++ b/Report/SWP391-AppDevProject_Weekly Report.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13848" windowHeight="5916"/>
   </bookViews>
   <sheets>
     <sheet name="Wx" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>PROJECT REPORT</t>
   </si>
@@ -601,8 +601,8 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <pane ySplit="3" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,7 +674,7 @@
         <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2"/>
     </row>
@@ -763,10 +763,14 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="1">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C18" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D18" s="2"/>
     </row>
